--- a/results/mp/tinybert/toy-spam/confidence/168/stop-words-0.1/avg_0.002_scores.xlsx
+++ b/results/mp/tinybert/toy-spam/confidence/168/stop-words-0.1/avg_0.002_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="117">
   <si>
     <t>anchor score</t>
   </si>
@@ -43,208 +43,223 @@
     <t>poorly</t>
   </si>
   <si>
+    <t>ripped</t>
+  </si>
+  <si>
+    <t>disappointing</t>
+  </si>
+  <si>
+    <t>terrible</t>
+  </si>
+  <si>
+    <t>inches</t>
+  </si>
+  <si>
+    <t>crap</t>
+  </si>
+  <si>
+    <t>however</t>
+  </si>
+  <si>
+    <t>disappointed</t>
+  </si>
+  <si>
+    <t>broke</t>
+  </si>
+  <si>
+    <t>worst</t>
+  </si>
+  <si>
+    <t>poor</t>
+  </si>
+  <si>
+    <t>disappointment</t>
+  </si>
+  <si>
+    <t>loose</t>
+  </si>
+  <si>
     <t>thin</t>
   </si>
   <si>
-    <t>crap</t>
-  </si>
-  <si>
-    <t>disappointment</t>
-  </si>
-  <si>
-    <t>disappointing</t>
-  </si>
-  <si>
-    <t>trash</t>
-  </si>
-  <si>
-    <t>however</t>
-  </si>
-  <si>
-    <t>poor</t>
-  </si>
-  <si>
-    <t>inches</t>
-  </si>
-  <si>
-    <t>disappointed</t>
-  </si>
-  <si>
-    <t>broke</t>
+    <t>waste</t>
   </si>
   <si>
     <t>returned</t>
   </si>
   <si>
-    <t>ripped</t>
-  </si>
-  <si>
-    <t>waste</t>
+    <t>water</t>
   </si>
   <si>
     <t>junk</t>
   </si>
   <si>
+    <t>tiny</t>
+  </si>
+  <si>
     <t>smaller</t>
   </si>
   <si>
-    <t>tiny</t>
-  </si>
-  <si>
-    <t>water</t>
-  </si>
-  <si>
     <t>instead</t>
   </si>
   <si>
+    <t>guess</t>
+  </si>
+  <si>
     <t>probably</t>
   </si>
   <si>
     <t>small</t>
   </si>
   <si>
-    <t>guess</t>
+    <t>low</t>
   </si>
   <si>
     <t>missing</t>
   </si>
   <si>
-    <t>low</t>
+    <t>plastic</t>
   </si>
   <si>
     <t>broken</t>
   </si>
   <si>
+    <t>paint</t>
+  </si>
+  <si>
     <t>pool</t>
   </si>
   <si>
-    <t>plastic</t>
-  </si>
-  <si>
     <t>okay</t>
   </si>
   <si>
+    <t>apart</t>
+  </si>
+  <si>
+    <t>tried</t>
+  </si>
+  <si>
+    <t>short</t>
+  </si>
+  <si>
+    <t>less</t>
+  </si>
+  <si>
     <t>lasted</t>
   </si>
   <si>
-    <t>paint</t>
-  </si>
-  <si>
-    <t>less</t>
-  </si>
-  <si>
-    <t>apart</t>
-  </si>
-  <si>
-    <t>wrong</t>
+    <t>di</t>
+  </si>
+  <si>
+    <t>un</t>
   </si>
   <si>
     <t>difficult</t>
   </si>
   <si>
-    <t>short</t>
+    <t>description</t>
   </si>
   <si>
     <t>ok</t>
   </si>
   <si>
-    <t>di</t>
-  </si>
-  <si>
-    <t>tried</t>
+    <t>fell</t>
   </si>
   <si>
     <t>half</t>
   </si>
   <si>
+    <t>seem</t>
+  </si>
+  <si>
+    <t>actually</t>
+  </si>
+  <si>
+    <t>thought</t>
+  </si>
+  <si>
+    <t>maybe</t>
+  </si>
+  <si>
     <t>cheap</t>
   </si>
   <si>
-    <t>thought</t>
-  </si>
-  <si>
-    <t>fell</t>
-  </si>
-  <si>
-    <t>light</t>
-  </si>
-  <si>
-    <t>actually</t>
-  </si>
-  <si>
-    <t>fl</t>
+    <t>pay</t>
+  </si>
+  <si>
+    <t>nothing</t>
   </si>
   <si>
     <t>though</t>
   </si>
   <si>
-    <t>pay</t>
+    <t>bad</t>
   </si>
   <si>
     <t>sound</t>
   </si>
   <si>
+    <t>seems</t>
+  </si>
+  <si>
+    <t>bit</t>
+  </si>
+  <si>
     <t>size</t>
   </si>
   <si>
-    <t>minutes</t>
-  </si>
-  <si>
-    <t>bit</t>
-  </si>
-  <si>
-    <t>bad</t>
-  </si>
-  <si>
     <t>1</t>
   </si>
   <si>
+    <t>would</t>
+  </si>
+  <si>
+    <t>item</t>
+  </si>
+  <si>
     <t>picture</t>
   </si>
   <si>
-    <t>item</t>
+    <t>fit</t>
+  </si>
+  <si>
+    <t>money</t>
+  </si>
+  <si>
+    <t>used</t>
+  </si>
+  <si>
+    <t>worked</t>
   </si>
   <si>
     <t>could</t>
   </si>
   <si>
-    <t>would</t>
-  </si>
-  <si>
-    <t>fit</t>
-  </si>
-  <si>
-    <t>money</t>
+    <t>work</t>
+  </si>
+  <si>
+    <t>back</t>
+  </si>
+  <si>
+    <t>product</t>
+  </si>
+  <si>
+    <t>need</t>
+  </si>
+  <si>
+    <t>hard</t>
   </si>
   <si>
     <t>better</t>
   </si>
   <si>
-    <t>work</t>
-  </si>
-  <si>
-    <t>hard</t>
-  </si>
-  <si>
-    <t>used</t>
-  </si>
-  <si>
-    <t>product</t>
-  </si>
-  <si>
-    <t>need</t>
-  </si>
-  <si>
-    <t>back</t>
-  </si>
-  <si>
-    <t>look</t>
+    <t>2</t>
   </si>
   <si>
     <t>price</t>
   </si>
   <si>
-    <t>2</t>
+    <t>looks</t>
   </si>
   <si>
     <t>3</t>
@@ -253,33 +268,33 @@
     <t>use</t>
   </si>
   <si>
+    <t>expected</t>
+  </si>
+  <si>
+    <t>put</t>
+  </si>
+  <si>
+    <t>box</t>
+  </si>
+  <si>
+    <t>pieces</t>
+  </si>
+  <si>
     <t>5</t>
   </si>
   <si>
-    <t>expected</t>
-  </si>
-  <si>
-    <t>pieces</t>
-  </si>
-  <si>
-    <t>box</t>
-  </si>
-  <si>
     <t>little</t>
   </si>
   <si>
-    <t>even</t>
-  </si>
-  <si>
     <t>buy</t>
   </si>
   <si>
+    <t>like</t>
+  </si>
+  <si>
     <t>made</t>
   </si>
   <si>
-    <t>like</t>
-  </si>
-  <si>
     <t>much</t>
   </si>
   <si>
@@ -295,27 +310,24 @@
     <t>wonderful</t>
   </si>
   <si>
+    <t>amazing</t>
+  </si>
+  <si>
     <t>awesome</t>
   </si>
   <si>
     <t>fantastic</t>
   </si>
   <si>
-    <t>amazing</t>
-  </si>
-  <si>
     <t>favorite</t>
   </si>
   <si>
-    <t>enjoyable</t>
+    <t>excellent</t>
   </si>
   <si>
     <t>classic</t>
   </si>
   <si>
-    <t>excellent</t>
-  </si>
-  <si>
     <t>thank</t>
   </si>
   <si>
@@ -337,19 +349,16 @@
     <t>loved</t>
   </si>
   <si>
-    <t>learn</t>
-  </si>
-  <si>
     <t>friends</t>
   </si>
   <si>
+    <t>enjoy</t>
+  </si>
+  <si>
+    <t>fun</t>
+  </si>
+  <si>
     <t>christmas</t>
-  </si>
-  <si>
-    <t>enjoy</t>
-  </si>
-  <si>
-    <t>fun</t>
   </si>
   <si>
     <t>game</t>
@@ -713,7 +722,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q85"/>
+  <dimension ref="A1:Q90"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -721,10 +730,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="J1" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -782,13 +791,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.9565217391304348</v>
+        <v>0.9782608695652174</v>
       </c>
       <c r="C3">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D3">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -800,19 +809,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="K3">
-        <v>0.875</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="L3">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="M3">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -824,7 +833,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -832,13 +841,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.8275862068965517</v>
+        <v>0.8518518518518519</v>
       </c>
       <c r="C4">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D4">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -850,31 +859,31 @@
         <v>0</v>
       </c>
       <c r="H4">
+        <v>4</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="K4">
+        <v>0.8148148148148148</v>
+      </c>
+      <c r="L4">
+        <v>22</v>
+      </c>
+      <c r="M4">
+        <v>22</v>
+      </c>
+      <c r="N4">
+        <v>1</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+      <c r="P4" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q4">
         <v>5</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="K4">
-        <v>0.8461538461538461</v>
-      </c>
-      <c r="L4">
-        <v>55</v>
-      </c>
-      <c r="M4">
-        <v>55</v>
-      </c>
-      <c r="N4">
-        <v>1</v>
-      </c>
-      <c r="O4">
-        <v>0</v>
-      </c>
-      <c r="P4" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q4">
-        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -882,13 +891,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.8095238095238095</v>
+        <v>0.8181818181818182</v>
       </c>
       <c r="C5">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="D5">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -900,19 +909,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="K5">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="L5">
-        <v>15</v>
+        <v>52</v>
       </c>
       <c r="M5">
-        <v>15</v>
+        <v>52</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -924,7 +933,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -932,13 +941,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.8095238095238095</v>
+        <v>0.7894736842105263</v>
       </c>
       <c r="C6">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D6">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -953,16 +962,16 @@
         <v>4</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="K6">
-        <v>0.7407407407407407</v>
+        <v>0.75</v>
       </c>
       <c r="L6">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="M6">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -974,7 +983,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -982,13 +991,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.7954545454545454</v>
+        <v>0.7727272727272727</v>
       </c>
       <c r="C7">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="D7">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -1000,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="K7">
-        <v>0.7311827956989247</v>
+        <v>0.6451612903225806</v>
       </c>
       <c r="L7">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="M7">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -1024,7 +1033,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>25</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1032,13 +1041,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.7894736842105263</v>
+        <v>0.7619047619047619</v>
       </c>
       <c r="C8">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D8">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -1050,19 +1059,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="K8">
-        <v>0.625</v>
+        <v>0.53125</v>
       </c>
       <c r="L8">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="M8">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -1074,7 +1083,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>9</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1082,13 +1091,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.78125</v>
+        <v>0.75</v>
       </c>
       <c r="C9">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D9">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1100,19 +1109,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="K9">
-        <v>0.5471698113207547</v>
+        <v>0.5283018867924528</v>
       </c>
       <c r="L9">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="M9">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1124,7 +1133,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1132,13 +1141,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.7464788732394366</v>
+        <v>0.7419354838709677</v>
       </c>
       <c r="C10">
-        <v>53</v>
+        <v>138</v>
       </c>
       <c r="D10">
-        <v>53</v>
+        <v>138</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1150,19 +1159,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>18</v>
+        <v>48</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="K10">
-        <v>0.53125</v>
+        <v>0.4492753623188406</v>
       </c>
       <c r="L10">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="M10">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1174,7 +1183,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>30</v>
+        <v>38</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1182,13 +1191,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.7272727272727273</v>
+        <v>0.7378640776699029</v>
       </c>
       <c r="C11">
-        <v>16</v>
+        <v>152</v>
       </c>
       <c r="D11">
-        <v>16</v>
+        <v>152</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1200,19 +1209,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>6</v>
+        <v>54</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="K11">
-        <v>0.4347826086956522</v>
+        <v>0.3352459016393443</v>
       </c>
       <c r="L11">
-        <v>30</v>
+        <v>409</v>
       </c>
       <c r="M11">
-        <v>30</v>
+        <v>409</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1224,7 +1233,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>39</v>
+        <v>811</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1232,13 +1241,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.7258064516129032</v>
+        <v>0.72</v>
       </c>
       <c r="C12">
-        <v>135</v>
+        <v>18</v>
       </c>
       <c r="D12">
-        <v>135</v>
+        <v>18</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1250,19 +1259,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>51</v>
+        <v>7</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="K12">
-        <v>0.3442622950819672</v>
+        <v>0.2826398852223816</v>
       </c>
       <c r="L12">
-        <v>420</v>
+        <v>197</v>
       </c>
       <c r="M12">
-        <v>420</v>
+        <v>197</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1274,7 +1283,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>800</v>
+        <v>500</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1282,13 +1291,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.7135922330097088</v>
+        <v>0.7183098591549296</v>
       </c>
       <c r="C13">
-        <v>147</v>
+        <v>51</v>
       </c>
       <c r="D13">
-        <v>147</v>
+        <v>51</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1300,19 +1309,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>59</v>
+        <v>20</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="K13">
-        <v>0.2998565279770445</v>
+        <v>0.2634854771784232</v>
       </c>
       <c r="L13">
-        <v>209</v>
+        <v>127</v>
       </c>
       <c r="M13">
-        <v>209</v>
+        <v>127</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1324,7 +1333,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>488</v>
+        <v>355</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1332,13 +1341,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.7105263157894737</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="C14">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="D14">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1350,19 +1359,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="K14">
-        <v>0.2614107883817428</v>
+        <v>0.2166666666666667</v>
       </c>
       <c r="L14">
-        <v>126</v>
+        <v>26</v>
       </c>
       <c r="M14">
-        <v>126</v>
+        <v>26</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1374,7 +1383,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>356</v>
+        <v>94</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1382,13 +1391,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.7037037037037037</v>
+        <v>0.6956521739130435</v>
       </c>
       <c r="C15">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D15">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1400,19 +1409,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="K15">
-        <v>0.2416666666666667</v>
+        <v>0.2048192771084337</v>
       </c>
       <c r="L15">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="M15">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1424,7 +1433,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>91</v>
+        <v>132</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1432,13 +1441,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.6824324324324325</v>
+        <v>0.6896551724137931</v>
       </c>
       <c r="C16">
-        <v>101</v>
+        <v>20</v>
       </c>
       <c r="D16">
-        <v>101</v>
+        <v>20</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1450,19 +1459,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>47</v>
+        <v>9</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="K16">
-        <v>0.2228915662650602</v>
+        <v>0.1896024464831804</v>
       </c>
       <c r="L16">
-        <v>37</v>
+        <v>62</v>
       </c>
       <c r="M16">
-        <v>37</v>
+        <v>62</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1474,7 +1483,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>129</v>
+        <v>265</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1482,13 +1491,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.6181818181818182</v>
+        <v>0.6621621621621622</v>
       </c>
       <c r="C17">
-        <v>34</v>
+        <v>98</v>
       </c>
       <c r="D17">
-        <v>34</v>
+        <v>98</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1500,19 +1509,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>21</v>
+        <v>50</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="K17">
-        <v>0.1865443425076453</v>
+        <v>0.1216931216931217</v>
       </c>
       <c r="L17">
-        <v>61</v>
+        <v>23</v>
       </c>
       <c r="M17">
-        <v>61</v>
+        <v>23</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1524,7 +1533,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>266</v>
+        <v>166</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1532,13 +1541,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.6134453781512605</v>
+        <v>0.6578947368421053</v>
       </c>
       <c r="C18">
-        <v>73</v>
+        <v>25</v>
       </c>
       <c r="D18">
-        <v>73</v>
+        <v>25</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1550,13 +1559,13 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>46</v>
+        <v>13</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="K18">
-        <v>0.125</v>
+        <v>0.08602150537634409</v>
       </c>
       <c r="L18">
         <v>16</v>
@@ -1574,7 +1583,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>112</v>
+        <v>170</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1582,13 +1591,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.6</v>
+        <v>0.6190476190476191</v>
       </c>
       <c r="C19">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="D19">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1600,19 +1609,19 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="K19">
-        <v>0.1216931216931217</v>
+        <v>0.07712532865907099</v>
       </c>
       <c r="L19">
-        <v>23</v>
+        <v>88</v>
       </c>
       <c r="M19">
-        <v>23</v>
+        <v>88</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1624,7 +1633,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>166</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1632,13 +1641,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.5952380952380952</v>
+        <v>0.6181818181818182</v>
       </c>
       <c r="C20">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="D20">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1650,19 +1659,19 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="K20">
-        <v>0.108433734939759</v>
+        <v>0.07630522088353414</v>
       </c>
       <c r="L20">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="M20">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1674,7 +1683,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>222</v>
+        <v>230</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1682,13 +1691,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.5625</v>
+        <v>0.6</v>
       </c>
       <c r="C21">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="D21">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1700,19 +1709,19 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="K21">
-        <v>0.08602150537634409</v>
+        <v>0.03439325113562622</v>
       </c>
       <c r="L21">
-        <v>16</v>
+        <v>53</v>
       </c>
       <c r="M21">
-        <v>16</v>
+        <v>53</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1724,7 +1733,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>170</v>
+        <v>1488</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1732,13 +1741,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.5526315789473685</v>
+        <v>0.5882352941176471</v>
       </c>
       <c r="C22">
-        <v>21</v>
+        <v>70</v>
       </c>
       <c r="D22">
-        <v>21</v>
+        <v>70</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1750,31 +1759,7 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>17</v>
-      </c>
-      <c r="J22" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="K22">
-        <v>0.08150744960560911</v>
-      </c>
-      <c r="L22">
-        <v>93</v>
-      </c>
-      <c r="M22">
-        <v>93</v>
-      </c>
-      <c r="N22">
-        <v>1</v>
-      </c>
-      <c r="O22">
-        <v>0</v>
-      </c>
-      <c r="P22" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q22">
-        <v>1048</v>
+        <v>49</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1782,13 +1767,13 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.5043478260869565</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="C23">
-        <v>174</v>
+        <v>28</v>
       </c>
       <c r="D23">
-        <v>174</v>
+        <v>28</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1800,31 +1785,7 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>171</v>
-      </c>
-      <c r="J23" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="K23">
-        <v>0.03958468526930565</v>
-      </c>
-      <c r="L23">
-        <v>61</v>
-      </c>
-      <c r="M23">
-        <v>61</v>
-      </c>
-      <c r="N23">
-        <v>1</v>
-      </c>
-      <c r="O23">
-        <v>0</v>
-      </c>
-      <c r="P23" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q23">
-        <v>1480</v>
+        <v>20</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1832,13 +1793,13 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.5</v>
+        <v>0.5370370370370371</v>
       </c>
       <c r="C24">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D24">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1850,7 +1811,7 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1858,13 +1819,13 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.4888888888888889</v>
+        <v>0.5263157894736842</v>
       </c>
       <c r="C25">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D25">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1876,7 +1837,7 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -1884,13 +1845,13 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.4838709677419355</v>
+        <v>0.4898550724637681</v>
       </c>
       <c r="C26">
-        <v>15</v>
+        <v>169</v>
       </c>
       <c r="D26">
-        <v>15</v>
+        <v>169</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -1902,7 +1863,7 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>16</v>
+        <v>176</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -1910,13 +1871,13 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.4698795180722892</v>
+        <v>0.4838709677419355</v>
       </c>
       <c r="C27">
-        <v>39</v>
+        <v>15</v>
       </c>
       <c r="D27">
-        <v>39</v>
+        <v>15</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -1928,7 +1889,7 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <v>44</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -1936,13 +1897,13 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.4571428571428571</v>
+        <v>0.4666666666666667</v>
       </c>
       <c r="C28">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="D28">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -1954,7 +1915,7 @@
         <v>0</v>
       </c>
       <c r="H28">
-        <v>19</v>
+        <v>24</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -1962,13 +1923,13 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.4566929133858268</v>
+        <v>0.4645669291338583</v>
       </c>
       <c r="C29">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D29">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -1980,7 +1941,7 @@
         <v>0</v>
       </c>
       <c r="H29">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -1988,13 +1949,13 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.4444444444444444</v>
+        <v>0.4457831325301205</v>
       </c>
       <c r="C30">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="D30">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -2006,7 +1967,7 @@
         <v>0</v>
       </c>
       <c r="H30">
-        <v>30</v>
+        <v>46</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -2014,13 +1975,13 @@
         <v>36</v>
       </c>
       <c r="B31">
-        <v>0.4285714285714285</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="C31">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="D31">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -2032,7 +1993,7 @@
         <v>0</v>
       </c>
       <c r="H31">
-        <v>24</v>
+        <v>35</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -2043,10 +2004,10 @@
         <v>0.4285714285714285</v>
       </c>
       <c r="C32">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="D32">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -2058,7 +2019,7 @@
         <v>0</v>
       </c>
       <c r="H32">
-        <v>36</v>
+        <v>20</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -2066,13 +2027,13 @@
         <v>38</v>
       </c>
       <c r="B33">
-        <v>0.4166666666666667</v>
+        <v>0.4259259259259259</v>
       </c>
       <c r="C33">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D33">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -2084,7 +2045,7 @@
         <v>0</v>
       </c>
       <c r="H33">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -2092,13 +2053,13 @@
         <v>39</v>
       </c>
       <c r="B34">
-        <v>0.4</v>
+        <v>0.4105263157894737</v>
       </c>
       <c r="C34">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D34">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -2110,7 +2071,7 @@
         <v>0</v>
       </c>
       <c r="H34">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -2118,13 +2079,13 @@
         <v>40</v>
       </c>
       <c r="B35">
-        <v>0.3846153846153846</v>
+        <v>0.4098360655737705</v>
       </c>
       <c r="C35">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="D35">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="E35">
         <v>0</v>
@@ -2136,7 +2097,7 @@
         <v>0</v>
       </c>
       <c r="H35">
-        <v>24</v>
+        <v>36</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -2144,13 +2105,13 @@
         <v>41</v>
       </c>
       <c r="B36">
-        <v>0.3707865168539326</v>
+        <v>0.4081632653061225</v>
       </c>
       <c r="C36">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="D36">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="E36">
         <v>0</v>
@@ -2162,7 +2123,7 @@
         <v>0</v>
       </c>
       <c r="H36">
-        <v>56</v>
+        <v>29</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -2170,13 +2131,13 @@
         <v>42</v>
       </c>
       <c r="B37">
-        <v>0.3673469387755102</v>
+        <v>0.3833333333333334</v>
       </c>
       <c r="C37">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D37">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="E37">
         <v>0</v>
@@ -2188,7 +2149,7 @@
         <v>0</v>
       </c>
       <c r="H37">
-        <v>31</v>
+        <v>37</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -2196,13 +2157,13 @@
         <v>43</v>
       </c>
       <c r="B38">
-        <v>0.328125</v>
+        <v>0.3809523809523809</v>
       </c>
       <c r="C38">
-        <v>42</v>
+        <v>16</v>
       </c>
       <c r="D38">
-        <v>42</v>
+        <v>16</v>
       </c>
       <c r="E38">
         <v>0</v>
@@ -2214,7 +2175,7 @@
         <v>0</v>
       </c>
       <c r="H38">
-        <v>86</v>
+        <v>26</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -2222,13 +2183,13 @@
         <v>44</v>
       </c>
       <c r="B39">
-        <v>0.328125</v>
+        <v>0.359375</v>
       </c>
       <c r="C39">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D39">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E39">
         <v>0</v>
@@ -2240,7 +2201,7 @@
         <v>0</v>
       </c>
       <c r="H39">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -2248,13 +2209,13 @@
         <v>45</v>
       </c>
       <c r="B40">
-        <v>0.3278688524590164</v>
+        <v>0.3488372093023256</v>
       </c>
       <c r="C40">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D40">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="E40">
         <v>0</v>
@@ -2266,7 +2227,7 @@
         <v>0</v>
       </c>
       <c r="H40">
-        <v>41</v>
+        <v>28</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -2274,13 +2235,13 @@
         <v>46</v>
       </c>
       <c r="B41">
-        <v>0.3148148148148148</v>
+        <v>0.3370786516853932</v>
       </c>
       <c r="C41">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="D41">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="E41">
         <v>0</v>
@@ -2292,7 +2253,7 @@
         <v>0</v>
       </c>
       <c r="H41">
-        <v>37</v>
+        <v>59</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -2300,13 +2261,13 @@
         <v>47</v>
       </c>
       <c r="B42">
-        <v>0.2985781990521327</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="C42">
-        <v>63</v>
+        <v>16</v>
       </c>
       <c r="D42">
-        <v>63</v>
+        <v>16</v>
       </c>
       <c r="E42">
         <v>0</v>
@@ -2318,7 +2279,7 @@
         <v>0</v>
       </c>
       <c r="H42">
-        <v>148</v>
+        <v>32</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -2326,13 +2287,13 @@
         <v>48</v>
       </c>
       <c r="B43">
-        <v>0.2920792079207921</v>
+        <v>0.328125</v>
       </c>
       <c r="C43">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="D43">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="E43">
         <v>0</v>
@@ -2344,7 +2305,7 @@
         <v>0</v>
       </c>
       <c r="H43">
-        <v>143</v>
+        <v>86</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -2352,13 +2313,13 @@
         <v>49</v>
       </c>
       <c r="B44">
-        <v>0.2909090909090909</v>
+        <v>0.3272727272727273</v>
       </c>
       <c r="C44">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D44">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E44">
         <v>0</v>
@@ -2370,7 +2331,7 @@
         <v>0</v>
       </c>
       <c r="H44">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -2378,13 +2339,13 @@
         <v>50</v>
       </c>
       <c r="B45">
-        <v>0.2857142857142857</v>
+        <v>0.3148148148148148</v>
       </c>
       <c r="C45">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D45">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E45">
         <v>0</v>
@@ -2396,7 +2357,7 @@
         <v>0</v>
       </c>
       <c r="H45">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -2404,13 +2365,13 @@
         <v>51</v>
       </c>
       <c r="B46">
-        <v>0.2833333333333333</v>
+        <v>0.3061224489795918</v>
       </c>
       <c r="C46">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D46">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E46">
         <v>0</v>
@@ -2422,7 +2383,7 @@
         <v>0</v>
       </c>
       <c r="H46">
-        <v>43</v>
+        <v>34</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -2430,13 +2391,13 @@
         <v>52</v>
       </c>
       <c r="B47">
-        <v>0.2758620689655172</v>
+        <v>0.2833333333333333</v>
       </c>
       <c r="C47">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D47">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E47">
         <v>0</v>
@@ -2448,7 +2409,7 @@
         <v>0</v>
       </c>
       <c r="H47">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -2456,13 +2417,13 @@
         <v>53</v>
       </c>
       <c r="B48">
-        <v>0.2735042735042735</v>
+        <v>0.2821782178217822</v>
       </c>
       <c r="C48">
-        <v>32</v>
+        <v>57</v>
       </c>
       <c r="D48">
-        <v>32</v>
+        <v>57</v>
       </c>
       <c r="E48">
         <v>0</v>
@@ -2474,7 +2435,7 @@
         <v>0</v>
       </c>
       <c r="H48">
-        <v>85</v>
+        <v>145</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -2482,13 +2443,13 @@
         <v>54</v>
       </c>
       <c r="B49">
-        <v>0.253968253968254</v>
+        <v>0.2678571428571428</v>
       </c>
       <c r="C49">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D49">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E49">
         <v>0</v>
@@ -2500,7 +2461,7 @@
         <v>0</v>
       </c>
       <c r="H49">
-        <v>47</v>
+        <v>41</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -2508,13 +2469,13 @@
         <v>55</v>
       </c>
       <c r="B50">
-        <v>0.2463768115942029</v>
+        <v>0.2559241706161137</v>
       </c>
       <c r="C50">
-        <v>17</v>
+        <v>54</v>
       </c>
       <c r="D50">
-        <v>17</v>
+        <v>54</v>
       </c>
       <c r="E50">
         <v>0</v>
@@ -2526,7 +2487,7 @@
         <v>0</v>
       </c>
       <c r="H50">
-        <v>52</v>
+        <v>157</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -2534,13 +2495,13 @@
         <v>56</v>
       </c>
       <c r="B51">
-        <v>0.2319587628865979</v>
+        <v>0.253968253968254</v>
       </c>
       <c r="C51">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="D51">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="E51">
         <v>0</v>
@@ -2552,7 +2513,7 @@
         <v>0</v>
       </c>
       <c r="H51">
-        <v>149</v>
+        <v>47</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -2560,13 +2521,13 @@
         <v>57</v>
       </c>
       <c r="B52">
-        <v>0.2297297297297297</v>
+        <v>0.2417582417582418</v>
       </c>
       <c r="C52">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="D52">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="E52">
         <v>0</v>
@@ -2578,7 +2539,7 @@
         <v>0</v>
       </c>
       <c r="H52">
-        <v>57</v>
+        <v>69</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -2586,13 +2547,13 @@
         <v>58</v>
       </c>
       <c r="B53">
-        <v>0.2244897959183673</v>
+        <v>0.2393162393162393</v>
       </c>
       <c r="C53">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="D53">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="E53">
         <v>0</v>
@@ -2604,7 +2565,7 @@
         <v>0</v>
       </c>
       <c r="H53">
-        <v>76</v>
+        <v>89</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -2612,13 +2573,13 @@
         <v>59</v>
       </c>
       <c r="B54">
-        <v>0.2238805970149254</v>
+        <v>0.2388059701492537</v>
       </c>
       <c r="C54">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D54">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E54">
         <v>0</v>
@@ -2630,7 +2591,7 @@
         <v>0</v>
       </c>
       <c r="H54">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -2638,13 +2599,13 @@
         <v>60</v>
       </c>
       <c r="B55">
-        <v>0.1864406779661017</v>
+        <v>0.2318840579710145</v>
       </c>
       <c r="C55">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="D55">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="E55">
         <v>0</v>
@@ -2656,7 +2617,7 @@
         <v>0</v>
       </c>
       <c r="H55">
-        <v>96</v>
+        <v>53</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -2664,13 +2625,13 @@
         <v>61</v>
       </c>
       <c r="B56">
-        <v>0.1855670103092784</v>
+        <v>0.2162162162162162</v>
       </c>
       <c r="C56">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D56">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E56">
         <v>0</v>
@@ -2682,7 +2643,7 @@
         <v>0</v>
       </c>
       <c r="H56">
-        <v>79</v>
+        <v>58</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -2690,13 +2651,13 @@
         <v>62</v>
       </c>
       <c r="B57">
-        <v>0.1811594202898551</v>
+        <v>0.2142857142857143</v>
       </c>
       <c r="C57">
-        <v>50</v>
+        <v>21</v>
       </c>
       <c r="D57">
-        <v>50</v>
+        <v>21</v>
       </c>
       <c r="E57">
         <v>0</v>
@@ -2708,7 +2669,7 @@
         <v>0</v>
       </c>
       <c r="H57">
-        <v>226</v>
+        <v>77</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -2716,13 +2677,13 @@
         <v>63</v>
       </c>
       <c r="B58">
-        <v>0.1719745222929936</v>
+        <v>0.2010309278350516</v>
       </c>
       <c r="C58">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="D58">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="E58">
         <v>0</v>
@@ -2734,7 +2695,7 @@
         <v>0</v>
       </c>
       <c r="H58">
-        <v>130</v>
+        <v>155</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -2742,13 +2703,13 @@
         <v>64</v>
       </c>
       <c r="B59">
-        <v>0.1676557863501484</v>
+        <v>0.1864406779661017</v>
       </c>
       <c r="C59">
-        <v>113</v>
+        <v>22</v>
       </c>
       <c r="D59">
-        <v>113</v>
+        <v>22</v>
       </c>
       <c r="E59">
         <v>0</v>
@@ -2760,7 +2721,7 @@
         <v>0</v>
       </c>
       <c r="H59">
-        <v>561</v>
+        <v>96</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -2768,13 +2729,13 @@
         <v>65</v>
       </c>
       <c r="B60">
-        <v>0.1649484536082474</v>
+        <v>0.1839762611275964</v>
       </c>
       <c r="C60">
-        <v>16</v>
+        <v>124</v>
       </c>
       <c r="D60">
-        <v>16</v>
+        <v>124</v>
       </c>
       <c r="E60">
         <v>0</v>
@@ -2786,7 +2747,7 @@
         <v>0</v>
       </c>
       <c r="H60">
-        <v>81</v>
+        <v>550</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -2794,13 +2755,13 @@
         <v>66</v>
       </c>
       <c r="B61">
-        <v>0.1613924050632911</v>
+        <v>0.1811594202898551</v>
       </c>
       <c r="C61">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D61">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E61">
         <v>0</v>
@@ -2812,7 +2773,7 @@
         <v>0</v>
       </c>
       <c r="H61">
-        <v>265</v>
+        <v>226</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2820,13 +2781,13 @@
         <v>67</v>
       </c>
       <c r="B62">
-        <v>0.1588785046728972</v>
+        <v>0.1752577319587629</v>
       </c>
       <c r="C62">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="D62">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="E62">
         <v>0</v>
@@ -2838,7 +2799,7 @@
         <v>0</v>
       </c>
       <c r="H62">
-        <v>180</v>
+        <v>80</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2846,13 +2807,13 @@
         <v>68</v>
       </c>
       <c r="B63">
-        <v>0.1487341772151899</v>
+        <v>0.1752577319587629</v>
       </c>
       <c r="C63">
-        <v>47</v>
+        <v>17</v>
       </c>
       <c r="D63">
-        <v>47</v>
+        <v>17</v>
       </c>
       <c r="E63">
         <v>0</v>
@@ -2864,7 +2825,7 @@
         <v>0</v>
       </c>
       <c r="H63">
-        <v>269</v>
+        <v>80</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2872,13 +2833,13 @@
         <v>69</v>
       </c>
       <c r="B64">
-        <v>0.145</v>
+        <v>0.1740506329113924</v>
       </c>
       <c r="C64">
-        <v>29</v>
+        <v>55</v>
       </c>
       <c r="D64">
-        <v>29</v>
+        <v>55</v>
       </c>
       <c r="E64">
         <v>0</v>
@@ -2890,7 +2851,7 @@
         <v>0</v>
       </c>
       <c r="H64">
-        <v>171</v>
+        <v>261</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2898,13 +2859,13 @@
         <v>70</v>
       </c>
       <c r="B65">
-        <v>0.1428571428571428</v>
+        <v>0.16</v>
       </c>
       <c r="C65">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D65">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E65">
         <v>0</v>
@@ -2916,7 +2877,7 @@
         <v>0</v>
       </c>
       <c r="H65">
-        <v>150</v>
+        <v>147</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2924,13 +2885,13 @@
         <v>71</v>
       </c>
       <c r="B66">
-        <v>0.1365638766519824</v>
+        <v>0.1481481481481481</v>
       </c>
       <c r="C66">
-        <v>62</v>
+        <v>16</v>
       </c>
       <c r="D66">
-        <v>62</v>
+        <v>16</v>
       </c>
       <c r="E66">
         <v>0</v>
@@ -2942,7 +2903,7 @@
         <v>0</v>
       </c>
       <c r="H66">
-        <v>392</v>
+        <v>92</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2950,13 +2911,13 @@
         <v>72</v>
       </c>
       <c r="B67">
-        <v>0.1307692307692308</v>
+        <v>0.1464968152866242</v>
       </c>
       <c r="C67">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="D67">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="E67">
         <v>0</v>
@@ -2968,7 +2929,7 @@
         <v>0</v>
       </c>
       <c r="H67">
-        <v>113</v>
+        <v>134</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2976,13 +2937,13 @@
         <v>73</v>
       </c>
       <c r="B68">
-        <v>0.1285714285714286</v>
+        <v>0.1455696202531646</v>
       </c>
       <c r="C68">
-        <v>18</v>
+        <v>46</v>
       </c>
       <c r="D68">
-        <v>18</v>
+        <v>46</v>
       </c>
       <c r="E68">
         <v>0</v>
@@ -2994,7 +2955,7 @@
         <v>0</v>
       </c>
       <c r="H68">
-        <v>122</v>
+        <v>270</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -3002,13 +2963,13 @@
         <v>74</v>
       </c>
       <c r="B69">
-        <v>0.125</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="C69">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D69">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="E69">
         <v>0</v>
@@ -3020,7 +2981,7 @@
         <v>0</v>
       </c>
       <c r="H69">
-        <v>112</v>
+        <v>120</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -3028,25 +2989,25 @@
         <v>75</v>
       </c>
       <c r="B70">
-        <v>0.1210374639769452</v>
+        <v>0.1387665198237885</v>
       </c>
       <c r="C70">
-        <v>42</v>
+        <v>63</v>
       </c>
       <c r="D70">
-        <v>43</v>
+        <v>63</v>
       </c>
       <c r="E70">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="F70">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="G70" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H70">
-        <v>305</v>
+        <v>391</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -3054,13 +3015,13 @@
         <v>76</v>
       </c>
       <c r="B71">
-        <v>0.1123595505617977</v>
+        <v>0.1384615384615385</v>
       </c>
       <c r="C71">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="D71">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="E71">
         <v>0</v>
@@ -3072,7 +3033,7 @@
         <v>0</v>
       </c>
       <c r="H71">
-        <v>237</v>
+        <v>112</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -3080,13 +3041,13 @@
         <v>77</v>
       </c>
       <c r="B72">
-        <v>0.1048387096774194</v>
+        <v>0.135</v>
       </c>
       <c r="C72">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D72">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E72">
         <v>0</v>
@@ -3098,7 +3059,7 @@
         <v>0</v>
       </c>
       <c r="H72">
-        <v>222</v>
+        <v>173</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -3106,25 +3067,25 @@
         <v>78</v>
       </c>
       <c r="B73">
-        <v>0.1016483516483516</v>
+        <v>0.1214953271028037</v>
       </c>
       <c r="C73">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="D73">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="E73">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="F73">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="G73" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H73">
-        <v>327</v>
+        <v>188</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -3132,13 +3093,13 @@
         <v>79</v>
       </c>
       <c r="B74">
-        <v>0.09523809523809523</v>
+        <v>0.1198501872659176</v>
       </c>
       <c r="C74">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="D74">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="E74">
         <v>0</v>
@@ -3150,7 +3111,7 @@
         <v>0</v>
       </c>
       <c r="H74">
-        <v>171</v>
+        <v>235</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -3158,13 +3119,13 @@
         <v>80</v>
       </c>
       <c r="B75">
-        <v>0.09375</v>
+        <v>0.117816091954023</v>
       </c>
       <c r="C75">
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="D75">
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="E75">
         <v>0</v>
@@ -3176,7 +3137,7 @@
         <v>0</v>
       </c>
       <c r="H75">
-        <v>174</v>
+        <v>307</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -3184,13 +3145,13 @@
         <v>81</v>
       </c>
       <c r="B76">
-        <v>0.09289617486338798</v>
+        <v>0.1145038167938931</v>
       </c>
       <c r="C76">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D76">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E76">
         <v>0</v>
@@ -3202,7 +3163,7 @@
         <v>0</v>
       </c>
       <c r="H76">
-        <v>166</v>
+        <v>116</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -3210,13 +3171,13 @@
         <v>82</v>
       </c>
       <c r="B77">
-        <v>0.08376963350785341</v>
+        <v>0.1088709677419355</v>
       </c>
       <c r="C77">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="D77">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="E77">
         <v>0</v>
@@ -3228,7 +3189,7 @@
         <v>0</v>
       </c>
       <c r="H77">
-        <v>175</v>
+        <v>221</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -3236,13 +3197,13 @@
         <v>83</v>
       </c>
       <c r="B78">
-        <v>0.0645879732739421</v>
+        <v>0.1068493150684932</v>
       </c>
       <c r="C78">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="D78">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="E78">
         <v>0</v>
@@ -3254,7 +3215,7 @@
         <v>0</v>
       </c>
       <c r="H78">
-        <v>420</v>
+        <v>326</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -3262,25 +3223,25 @@
         <v>84</v>
       </c>
       <c r="B79">
-        <v>0.06093189964157706</v>
+        <v>0.1041666666666667</v>
       </c>
       <c r="C79">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D79">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E79">
-        <v>0.06</v>
+        <v>0</v>
       </c>
       <c r="F79">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="G79" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H79">
-        <v>262</v>
+        <v>172</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -3288,13 +3249,13 @@
         <v>85</v>
       </c>
       <c r="B80">
-        <v>0.05915492957746479</v>
+        <v>0.09740259740259741</v>
       </c>
       <c r="C80">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="D80">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="E80">
         <v>0</v>
@@ -3306,7 +3267,7 @@
         <v>0</v>
       </c>
       <c r="H80">
-        <v>334</v>
+        <v>139</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -3314,25 +3275,25 @@
         <v>86</v>
       </c>
       <c r="B81">
-        <v>0.05379746835443038</v>
+        <v>0.09424083769633508</v>
       </c>
       <c r="C81">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D81">
         <v>18</v>
       </c>
       <c r="E81">
-        <v>0.06</v>
+        <v>0</v>
       </c>
       <c r="F81">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="G81" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H81">
-        <v>299</v>
+        <v>173</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -3340,25 +3301,25 @@
         <v>87</v>
       </c>
       <c r="B82">
-        <v>0.05107084019769358</v>
+        <v>0.08196721311475409</v>
       </c>
       <c r="C82">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="D82">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="E82">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="F82">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="G82" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H82">
-        <v>576</v>
+        <v>168</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -3366,25 +3327,25 @@
         <v>88</v>
       </c>
       <c r="B83">
-        <v>0.04872389791183294</v>
+        <v>0.07936507936507936</v>
       </c>
       <c r="C83">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="D83">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="E83">
-        <v>0.12</v>
+        <v>0</v>
       </c>
       <c r="F83">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="G83" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H83">
-        <v>410</v>
+        <v>174</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -3392,25 +3353,25 @@
         <v>89</v>
       </c>
       <c r="B84">
-        <v>0.03291139240506329</v>
+        <v>0.07349665924276169</v>
       </c>
       <c r="C84">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="D84">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="E84">
-        <v>0.13</v>
+        <v>0</v>
       </c>
       <c r="F84">
-        <v>0.87</v>
+        <v>1</v>
       </c>
       <c r="G84" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H84">
-        <v>764</v>
+        <v>416</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -3418,25 +3379,155 @@
         <v>90</v>
       </c>
       <c r="B85">
-        <v>0.02748091603053435</v>
+        <v>0.06760563380281689</v>
       </c>
       <c r="C85">
+        <v>24</v>
+      </c>
+      <c r="D85">
+        <v>24</v>
+      </c>
+      <c r="E85">
+        <v>0</v>
+      </c>
+      <c r="F85">
+        <v>1</v>
+      </c>
+      <c r="G85" t="b">
+        <v>0</v>
+      </c>
+      <c r="H85">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
+      <c r="A86" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B86">
+        <v>0.05756578947368421</v>
+      </c>
+      <c r="C86">
+        <v>35</v>
+      </c>
+      <c r="D86">
+        <v>35</v>
+      </c>
+      <c r="E86">
+        <v>0</v>
+      </c>
+      <c r="F86">
+        <v>1</v>
+      </c>
+      <c r="G86" t="b">
+        <v>0</v>
+      </c>
+      <c r="H86">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
+      <c r="A87" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B87">
+        <v>0.05063291139240506</v>
+      </c>
+      <c r="C87">
+        <v>16</v>
+      </c>
+      <c r="D87">
+        <v>17</v>
+      </c>
+      <c r="E87">
+        <v>0.06</v>
+      </c>
+      <c r="F87">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="G87" t="b">
+        <v>1</v>
+      </c>
+      <c r="H87">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
+      <c r="A88" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B88">
+        <v>0.04398148148148148</v>
+      </c>
+      <c r="C88">
+        <v>19</v>
+      </c>
+      <c r="D88">
+        <v>21</v>
+      </c>
+      <c r="E88">
+        <v>0.1</v>
+      </c>
+      <c r="F88">
+        <v>0.9</v>
+      </c>
+      <c r="G88" t="b">
+        <v>1</v>
+      </c>
+      <c r="H88">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
+      <c r="A89" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B89">
+        <v>0.03282828282828283</v>
+      </c>
+      <c r="C89">
+        <v>26</v>
+      </c>
+      <c r="D89">
+        <v>28</v>
+      </c>
+      <c r="E89">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="F89">
+        <v>0.9299999999999999</v>
+      </c>
+      <c r="G89" t="b">
+        <v>1</v>
+      </c>
+      <c r="H89">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
+      <c r="A90" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B90">
+        <v>0.02752293577981652</v>
+      </c>
+      <c r="C90">
         <v>18</v>
       </c>
-      <c r="D85">
-        <v>18</v>
-      </c>
-      <c r="E85">
-        <v>0</v>
-      </c>
-      <c r="F85">
-        <v>1</v>
-      </c>
-      <c r="G85" t="b">
-        <v>0</v>
-      </c>
-      <c r="H85">
-        <v>637</v>
+      <c r="D90">
+        <v>19</v>
+      </c>
+      <c r="E90">
+        <v>0.05</v>
+      </c>
+      <c r="F90">
+        <v>0.95</v>
+      </c>
+      <c r="G90" t="b">
+        <v>1</v>
+      </c>
+      <c r="H90">
+        <v>636</v>
       </c>
     </row>
   </sheetData>
